--- a/data_set_cc/question_3.xlsx
+++ b/data_set_cc/question_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>hydroxychloroquine_Q3</t>
   </si>
@@ -20,10 +20,67 @@
     <t>azytro</t>
   </si>
   <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.288</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>1.076</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -87,159 +144,159 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
